--- a/Research Corpus/Data by Source/Source_6~Blockchain Consensus Mechanisms- A Comprehensive Review and Performance Analysis Framework.xlsx
+++ b/Research Corpus/Data by Source/Source_6~Blockchain Consensus Mechanisms- A Comprehensive Review and Performance Analysis Framework.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yawu/Desktop/Repos/FT324_SLR/Research Corpus/Data by Source/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\FT324_SLR\Research Corpus\Data by Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262E0E0E-A82B-C446-9462-83065051FE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6CEB79-4873-4E9F-B805-8BE056C1088D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1000" windowWidth="27640" windowHeight="15880" xr2:uid="{754419C1-0F3F-3647-A532-9827BA1C8B7E}"/>
+    <workbookView xWindow="-28920" yWindow="2715" windowWidth="29040" windowHeight="15720" xr2:uid="{754419C1-0F3F-3647-A532-9827BA1C8B7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -163,20 +163,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <font>
@@ -196,6 +201,15 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -214,11 +228,11 @@
   <autoFilter ref="A1:G10" xr:uid="{115EDC2F-E161-E541-948B-57B318B7A756}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{24CAED38-1FCD-B84A-9A81-286811F58FD3}" name="Consensus"/>
-    <tableColumn id="2" xr3:uid="{1FC090FA-D53D-9945-9980-31B77B7C1A40}" name="TPS"/>
-    <tableColumn id="3" xr3:uid="{0CF134D6-57BB-DE46-84F0-9B00275184E1}" name="Energy Use per Transaction"/>
-    <tableColumn id="4" xr3:uid="{C183822B-94EB-194A-80D3-7FD19859150F}" name="Nakamoto Coefficient"/>
-    <tableColumn id="5" xr3:uid="{2B11CD8D-8F08-3C4D-A40A-DE6AAEB5FE56}" name="% of nodes required to take over network" dataDxfId="1" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{3AE017AC-E138-5C46-9867-98FB57A97641}" name="Strengths"/>
+    <tableColumn id="2" xr3:uid="{1FC090FA-D53D-9945-9980-31B77B7C1A40}" name="TPS" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{0CF134D6-57BB-DE46-84F0-9B00275184E1}" name="Energy Use per Transaction" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{C183822B-94EB-194A-80D3-7FD19859150F}" name="Nakamoto Coefficient" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{2B11CD8D-8F08-3C4D-A40A-DE6AAEB5FE56}" name="% of nodes required to take over network" dataDxfId="2" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{3AE017AC-E138-5C46-9867-98FB57A97641}" name="Strengths" dataDxfId="1"/>
     <tableColumn id="7" xr3:uid="{0A1B6FA4-07C8-3149-B875-83ABDFEE8046}" name="Weaknesses" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -545,21 +559,21 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" customWidth="1"/>
+    <col min="1" max="1" width="37.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.375" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" customWidth="1"/>
-    <col min="5" max="5" width="35.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" customWidth="1"/>
+    <col min="4" max="4" width="21.125" customWidth="1"/>
+    <col min="5" max="5" width="35.625" customWidth="1"/>
+    <col min="6" max="6" width="11.125" customWidth="1"/>
     <col min="7" max="7" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -582,210 +596,210 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="136" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1">
         <v>0.51</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="136" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="126" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>20000</v>
       </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1">
         <v>0.33</v>
       </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="F6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>10000</v>
       </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="3" t="s">
         <v>25</v>
       </c>
     </row>

--- a/Research Corpus/Data by Source/Source_6~Blockchain Consensus Mechanisms- A Comprehensive Review and Performance Analysis Framework.xlsx
+++ b/Research Corpus/Data by Source/Source_6~Blockchain Consensus Mechanisms- A Comprehensive Review and Performance Analysis Framework.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\FT324_SLR\Research Corpus\Data by Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6CEB79-4873-4E9F-B805-8BE056C1088D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3216A886-D81A-49FD-8AC8-DAFE98D727E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2715" windowWidth="29040" windowHeight="15720" xr2:uid="{754419C1-0F3F-3647-A532-9827BA1C8B7E}"/>
+    <workbookView xWindow="-29010" yWindow="3780" windowWidth="28800" windowHeight="15345" xr2:uid="{754419C1-0F3F-3647-A532-9827BA1C8B7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
   <si>
     <t>Consensus</t>
   </si>
@@ -120,6 +120,12 @@
   </si>
   <si>
     <t>lower transaction fees and resource consumption while also achieving higher transaction throughput, significant advantages in terms of improving scalability and flexibility, high throughput, low latency, low fees through parallel transaction processing and decentralised architecture</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>0.02</t>
   </si>
 </sst>
 </file>
@@ -163,13 +169,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,14 +565,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B43E01C-2ABF-B944-8ED2-A207F04135F0}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.375" customWidth="1"/>
+    <col min="2" max="2" width="20.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="21.125" customWidth="1"/>
     <col min="5" max="5" width="35.625" customWidth="1"/>
@@ -601,10 +608,11 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
+      </c>
+      <c r="C2">
+        <f>AVERAGE(50,800)</f>
+        <v>425</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
@@ -623,17 +631,17 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>18</v>
+      <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.33</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>19</v>
@@ -646,17 +654,18 @@
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>18</v>
+      <c r="B4" s="4">
+        <f>AVERAGE(3000,10000)</f>
+        <v>6500</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.33</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>23</v>
@@ -669,17 +678,17 @@
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>18</v>
+      <c r="B5">
+        <v>6500</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.33</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>18</v>
@@ -692,13 +701,13 @@
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="4">
         <v>20000</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="1">
@@ -715,17 +724,17 @@
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="4">
         <v>10000</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>18</v>
+      <c r="C7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.33</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>18</v>
@@ -738,13 +747,13 @@
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="B8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -761,13 +770,13 @@
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="B9">
+        <v>10000</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -784,17 +793,17 @@
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>18</v>
+      <c r="B10">
+        <v>4000</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.5</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>27</v>
